--- a/Data/PlayerData.xlsx
+++ b/Data/PlayerData.xlsx
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C2">
         <v>0</v>

--- a/Data/PlayerData.xlsx
+++ b/Data/PlayerData.xlsx
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C2">
         <v>0</v>

--- a/Data/PlayerData.xlsx
+++ b/Data/PlayerData.xlsx
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17</v>
+        <v>1533</v>
       </c>
       <c r="C2">
         <v>0</v>

--- a/Data/PlayerData.xlsx
+++ b/Data/PlayerData.xlsx
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17</v>
+        <v>138</v>
       </c>
       <c r="C2">
         <v>0</v>

--- a/Data/PlayerData.xlsx
+++ b/Data/PlayerData.xlsx
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>138</v>
+        <v>668</v>
       </c>
       <c r="C2">
         <v>0</v>

--- a/Data/PlayerData.xlsx
+++ b/Data/PlayerData.xlsx
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1533</v>
+        <v>1542</v>
       </c>
       <c r="C2">
         <v>0</v>

--- a/Data/PlayerData.xlsx
+++ b/Data/PlayerData.xlsx
@@ -1,43 +1,76 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GItData\Space Scavenger\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F61D88A-202F-4F09-B650-B04A43C3C70D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38D83F12-966F-4736-B97D-5AF8ADF39B9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2145" yWindow="2160" windowWidth="24150" windowHeight="11295"/>
+    <workbookView xWindow="6450" yWindow="2040" windowWidth="22005" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" fullCalcOnLoad="true"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Created by LibXL trial version 4.0.4. Please buy the LibXL full version for removing this message.</t>
+  </si>
+  <si>
+    <t>자원 종류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Iron</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Copper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Emerald</t>
+  </si>
+  <si>
+    <t>Uranium</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5">
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="60"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -47,11 +80,23 @@
       <charset val="129"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <color indexed="60"/>
-      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -63,13 +108,8 @@
         <fgColor indexed="47"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="47"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -84,17 +124,15 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="3" fillId="3" borderId="2" applyFont="true" applyFill="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -115,7 +153,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -266,7 +304,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -290,9 +328,9 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="false"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -316,7 +354,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="false"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -351,7 +389,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="false">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -369,7 +407,7 @@
             <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -394,7 +432,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="false"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -410,296 +448,338 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:IV3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:IV10"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" ht="20" customHeight="true" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:256" ht="20.100000000000001" customHeight="1">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
-      <c r="AD1" s="2"/>
-      <c r="AE1" s="2"/>
-      <c r="AF1" s="2"/>
-      <c r="AG1" s="2"/>
-      <c r="AH1" s="2"/>
-      <c r="AI1" s="2"/>
-      <c r="AJ1" s="2"/>
-      <c r="AK1" s="2"/>
-      <c r="AL1" s="2"/>
-      <c r="AM1" s="2"/>
-      <c r="AN1" s="2"/>
-      <c r="AO1" s="2"/>
-      <c r="AP1" s="2"/>
-      <c r="AQ1" s="2"/>
-      <c r="AR1" s="2"/>
-      <c r="AS1" s="2"/>
-      <c r="AT1" s="2"/>
-      <c r="AU1" s="2"/>
-      <c r="AV1" s="2"/>
-      <c r="AW1" s="2"/>
-      <c r="AX1" s="2"/>
-      <c r="AY1" s="2"/>
-      <c r="AZ1" s="2"/>
-      <c r="BA1" s="2"/>
-      <c r="BB1" s="2"/>
-      <c r="BC1" s="2"/>
-      <c r="BD1" s="2"/>
-      <c r="BE1" s="2"/>
-      <c r="BF1" s="2"/>
-      <c r="BG1" s="2"/>
-      <c r="BH1" s="2"/>
-      <c r="BI1" s="2"/>
-      <c r="BJ1" s="2"/>
-      <c r="BK1" s="2"/>
-      <c r="BL1" s="2"/>
-      <c r="BM1" s="2"/>
-      <c r="BN1" s="2"/>
-      <c r="BO1" s="2"/>
-      <c r="BP1" s="2"/>
-      <c r="BQ1" s="2"/>
-      <c r="BR1" s="2"/>
-      <c r="BS1" s="2"/>
-      <c r="BT1" s="2"/>
-      <c r="BU1" s="2"/>
-      <c r="BV1" s="2"/>
-      <c r="BW1" s="2"/>
-      <c r="BX1" s="2"/>
-      <c r="BY1" s="2"/>
-      <c r="BZ1" s="2"/>
-      <c r="CA1" s="2"/>
-      <c r="CB1" s="2"/>
-      <c r="CC1" s="2"/>
-      <c r="CD1" s="2"/>
-      <c r="CE1" s="2"/>
-      <c r="CF1" s="2"/>
-      <c r="CG1" s="2"/>
-      <c r="CH1" s="2"/>
-      <c r="CI1" s="2"/>
-      <c r="CJ1" s="2"/>
-      <c r="CK1" s="2"/>
-      <c r="CL1" s="2"/>
-      <c r="CM1" s="2"/>
-      <c r="CN1" s="2"/>
-      <c r="CO1" s="2"/>
-      <c r="CP1" s="2"/>
-      <c r="CQ1" s="2"/>
-      <c r="CR1" s="2"/>
-      <c r="CS1" s="2"/>
-      <c r="CT1" s="2"/>
-      <c r="CU1" s="2"/>
-      <c r="CV1" s="2"/>
-      <c r="CW1" s="2"/>
-      <c r="CX1" s="2"/>
-      <c r="CY1" s="2"/>
-      <c r="CZ1" s="2"/>
-      <c r="DA1" s="2"/>
-      <c r="DB1" s="2"/>
-      <c r="DC1" s="2"/>
-      <c r="DD1" s="2"/>
-      <c r="DE1" s="2"/>
-      <c r="DF1" s="2"/>
-      <c r="DG1" s="2"/>
-      <c r="DH1" s="2"/>
-      <c r="DI1" s="2"/>
-      <c r="DJ1" s="2"/>
-      <c r="DK1" s="2"/>
-      <c r="DL1" s="2"/>
-      <c r="DM1" s="2"/>
-      <c r="DN1" s="2"/>
-      <c r="DO1" s="2"/>
-      <c r="DP1" s="2"/>
-      <c r="DQ1" s="2"/>
-      <c r="DR1" s="2"/>
-      <c r="DS1" s="2"/>
-      <c r="DT1" s="2"/>
-      <c r="DU1" s="2"/>
-      <c r="DV1" s="2"/>
-      <c r="DW1" s="2"/>
-      <c r="DX1" s="2"/>
-      <c r="DY1" s="2"/>
-      <c r="DZ1" s="2"/>
-      <c r="EA1" s="2"/>
-      <c r="EB1" s="2"/>
-      <c r="EC1" s="2"/>
-      <c r="ED1" s="2"/>
-      <c r="EE1" s="2"/>
-      <c r="EF1" s="2"/>
-      <c r="EG1" s="2"/>
-      <c r="EH1" s="2"/>
-      <c r="EI1" s="2"/>
-      <c r="EJ1" s="2"/>
-      <c r="EK1" s="2"/>
-      <c r="EL1" s="2"/>
-      <c r="EM1" s="2"/>
-      <c r="EN1" s="2"/>
-      <c r="EO1" s="2"/>
-      <c r="EP1" s="2"/>
-      <c r="EQ1" s="2"/>
-      <c r="ER1" s="2"/>
-      <c r="ES1" s="2"/>
-      <c r="ET1" s="2"/>
-      <c r="EU1" s="2"/>
-      <c r="EV1" s="2"/>
-      <c r="EW1" s="2"/>
-      <c r="EX1" s="2"/>
-      <c r="EY1" s="2"/>
-      <c r="EZ1" s="2"/>
-      <c r="FA1" s="2"/>
-      <c r="FB1" s="2"/>
-      <c r="FC1" s="2"/>
-      <c r="FD1" s="2"/>
-      <c r="FE1" s="2"/>
-      <c r="FF1" s="2"/>
-      <c r="FG1" s="2"/>
-      <c r="FH1" s="2"/>
-      <c r="FI1" s="2"/>
-      <c r="FJ1" s="2"/>
-      <c r="FK1" s="2"/>
-      <c r="FL1" s="2"/>
-      <c r="FM1" s="2"/>
-      <c r="FN1" s="2"/>
-      <c r="FO1" s="2"/>
-      <c r="FP1" s="2"/>
-      <c r="FQ1" s="2"/>
-      <c r="FR1" s="2"/>
-      <c r="FS1" s="2"/>
-      <c r="FT1" s="2"/>
-      <c r="FU1" s="2"/>
-      <c r="FV1" s="2"/>
-      <c r="FW1" s="2"/>
-      <c r="FX1" s="2"/>
-      <c r="FY1" s="2"/>
-      <c r="FZ1" s="2"/>
-      <c r="GA1" s="2"/>
-      <c r="GB1" s="2"/>
-      <c r="GC1" s="2"/>
-      <c r="GD1" s="2"/>
-      <c r="GE1" s="2"/>
-      <c r="GF1" s="2"/>
-      <c r="GG1" s="2"/>
-      <c r="GH1" s="2"/>
-      <c r="GI1" s="2"/>
-      <c r="GJ1" s="2"/>
-      <c r="GK1" s="2"/>
-      <c r="GL1" s="2"/>
-      <c r="GM1" s="2"/>
-      <c r="GN1" s="2"/>
-      <c r="GO1" s="2"/>
-      <c r="GP1" s="2"/>
-      <c r="GQ1" s="2"/>
-      <c r="GR1" s="2"/>
-      <c r="GS1" s="2"/>
-      <c r="GT1" s="2"/>
-      <c r="GU1" s="2"/>
-      <c r="GV1" s="2"/>
-      <c r="GW1" s="2"/>
-      <c r="GX1" s="2"/>
-      <c r="GY1" s="2"/>
-      <c r="GZ1" s="2"/>
-      <c r="HA1" s="2"/>
-      <c r="HB1" s="2"/>
-      <c r="HC1" s="2"/>
-      <c r="HD1" s="2"/>
-      <c r="HE1" s="2"/>
-      <c r="HF1" s="2"/>
-      <c r="HG1" s="2"/>
-      <c r="HH1" s="2"/>
-      <c r="HI1" s="2"/>
-      <c r="HJ1" s="2"/>
-      <c r="HK1" s="2"/>
-      <c r="HL1" s="2"/>
-      <c r="HM1" s="2"/>
-      <c r="HN1" s="2"/>
-      <c r="HO1" s="2"/>
-      <c r="HP1" s="2"/>
-      <c r="HQ1" s="2"/>
-      <c r="HR1" s="2"/>
-      <c r="HS1" s="2"/>
-      <c r="HT1" s="2"/>
-      <c r="HU1" s="2"/>
-      <c r="HV1" s="2"/>
-      <c r="HW1" s="2"/>
-      <c r="HX1" s="2"/>
-      <c r="HY1" s="2"/>
-      <c r="HZ1" s="2"/>
-      <c r="IA1" s="2"/>
-      <c r="IB1" s="2"/>
-      <c r="IC1" s="2"/>
-      <c r="ID1" s="2"/>
-      <c r="IE1" s="2"/>
-      <c r="IF1" s="2"/>
-      <c r="IG1" s="2"/>
-      <c r="IH1" s="2"/>
-      <c r="II1" s="2"/>
-      <c r="IJ1" s="2"/>
-      <c r="IK1" s="2"/>
-      <c r="IL1" s="2"/>
-      <c r="IM1" s="2"/>
-      <c r="IN1" s="2"/>
-      <c r="IO1" s="2"/>
-      <c r="IP1" s="2"/>
-      <c r="IQ1" s="2"/>
-      <c r="IR1" s="2"/>
-      <c r="IS1" s="2"/>
-      <c r="IT1" s="2"/>
-      <c r="IU1" s="2"/>
-      <c r="IV1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
+      <c r="AA1" s="3"/>
+      <c r="AB1" s="3"/>
+      <c r="AC1" s="3"/>
+      <c r="AD1" s="3"/>
+      <c r="AE1" s="3"/>
+      <c r="AF1" s="3"/>
+      <c r="AG1" s="3"/>
+      <c r="AH1" s="3"/>
+      <c r="AI1" s="3"/>
+      <c r="AJ1" s="3"/>
+      <c r="AK1" s="3"/>
+      <c r="AL1" s="3"/>
+      <c r="AM1" s="3"/>
+      <c r="AN1" s="3"/>
+      <c r="AO1" s="3"/>
+      <c r="AP1" s="3"/>
+      <c r="AQ1" s="3"/>
+      <c r="AR1" s="3"/>
+      <c r="AS1" s="3"/>
+      <c r="AT1" s="3"/>
+      <c r="AU1" s="3"/>
+      <c r="AV1" s="3"/>
+      <c r="AW1" s="3"/>
+      <c r="AX1" s="3"/>
+      <c r="AY1" s="3"/>
+      <c r="AZ1" s="3"/>
+      <c r="BA1" s="3"/>
+      <c r="BB1" s="3"/>
+      <c r="BC1" s="3"/>
+      <c r="BD1" s="3"/>
+      <c r="BE1" s="3"/>
+      <c r="BF1" s="3"/>
+      <c r="BG1" s="3"/>
+      <c r="BH1" s="3"/>
+      <c r="BI1" s="3"/>
+      <c r="BJ1" s="3"/>
+      <c r="BK1" s="3"/>
+      <c r="BL1" s="3"/>
+      <c r="BM1" s="3"/>
+      <c r="BN1" s="3"/>
+      <c r="BO1" s="3"/>
+      <c r="BP1" s="3"/>
+      <c r="BQ1" s="3"/>
+      <c r="BR1" s="3"/>
+      <c r="BS1" s="3"/>
+      <c r="BT1" s="3"/>
+      <c r="BU1" s="3"/>
+      <c r="BV1" s="3"/>
+      <c r="BW1" s="3"/>
+      <c r="BX1" s="3"/>
+      <c r="BY1" s="3"/>
+      <c r="BZ1" s="3"/>
+      <c r="CA1" s="3"/>
+      <c r="CB1" s="3"/>
+      <c r="CC1" s="3"/>
+      <c r="CD1" s="3"/>
+      <c r="CE1" s="3"/>
+      <c r="CF1" s="3"/>
+      <c r="CG1" s="3"/>
+      <c r="CH1" s="3"/>
+      <c r="CI1" s="3"/>
+      <c r="CJ1" s="3"/>
+      <c r="CK1" s="3"/>
+      <c r="CL1" s="3"/>
+      <c r="CM1" s="3"/>
+      <c r="CN1" s="3"/>
+      <c r="CO1" s="3"/>
+      <c r="CP1" s="3"/>
+      <c r="CQ1" s="3"/>
+      <c r="CR1" s="3"/>
+      <c r="CS1" s="3"/>
+      <c r="CT1" s="3"/>
+      <c r="CU1" s="3"/>
+      <c r="CV1" s="3"/>
+      <c r="CW1" s="3"/>
+      <c r="CX1" s="3"/>
+      <c r="CY1" s="3"/>
+      <c r="CZ1" s="3"/>
+      <c r="DA1" s="3"/>
+      <c r="DB1" s="3"/>
+      <c r="DC1" s="3"/>
+      <c r="DD1" s="3"/>
+      <c r="DE1" s="3"/>
+      <c r="DF1" s="3"/>
+      <c r="DG1" s="3"/>
+      <c r="DH1" s="3"/>
+      <c r="DI1" s="3"/>
+      <c r="DJ1" s="3"/>
+      <c r="DK1" s="3"/>
+      <c r="DL1" s="3"/>
+      <c r="DM1" s="3"/>
+      <c r="DN1" s="3"/>
+      <c r="DO1" s="3"/>
+      <c r="DP1" s="3"/>
+      <c r="DQ1" s="3"/>
+      <c r="DR1" s="3"/>
+      <c r="DS1" s="3"/>
+      <c r="DT1" s="3"/>
+      <c r="DU1" s="3"/>
+      <c r="DV1" s="3"/>
+      <c r="DW1" s="3"/>
+      <c r="DX1" s="3"/>
+      <c r="DY1" s="3"/>
+      <c r="DZ1" s="3"/>
+      <c r="EA1" s="3"/>
+      <c r="EB1" s="3"/>
+      <c r="EC1" s="3"/>
+      <c r="ED1" s="3"/>
+      <c r="EE1" s="3"/>
+      <c r="EF1" s="3"/>
+      <c r="EG1" s="3"/>
+      <c r="EH1" s="3"/>
+      <c r="EI1" s="3"/>
+      <c r="EJ1" s="3"/>
+      <c r="EK1" s="3"/>
+      <c r="EL1" s="3"/>
+      <c r="EM1" s="3"/>
+      <c r="EN1" s="3"/>
+      <c r="EO1" s="3"/>
+      <c r="EP1" s="3"/>
+      <c r="EQ1" s="3"/>
+      <c r="ER1" s="3"/>
+      <c r="ES1" s="3"/>
+      <c r="ET1" s="3"/>
+      <c r="EU1" s="3"/>
+      <c r="EV1" s="3"/>
+      <c r="EW1" s="3"/>
+      <c r="EX1" s="3"/>
+      <c r="EY1" s="3"/>
+      <c r="EZ1" s="3"/>
+      <c r="FA1" s="3"/>
+      <c r="FB1" s="3"/>
+      <c r="FC1" s="3"/>
+      <c r="FD1" s="3"/>
+      <c r="FE1" s="3"/>
+      <c r="FF1" s="3"/>
+      <c r="FG1" s="3"/>
+      <c r="FH1" s="3"/>
+      <c r="FI1" s="3"/>
+      <c r="FJ1" s="3"/>
+      <c r="FK1" s="3"/>
+      <c r="FL1" s="3"/>
+      <c r="FM1" s="3"/>
+      <c r="FN1" s="3"/>
+      <c r="FO1" s="3"/>
+      <c r="FP1" s="3"/>
+      <c r="FQ1" s="3"/>
+      <c r="FR1" s="3"/>
+      <c r="FS1" s="3"/>
+      <c r="FT1" s="3"/>
+      <c r="FU1" s="3"/>
+      <c r="FV1" s="3"/>
+      <c r="FW1" s="3"/>
+      <c r="FX1" s="3"/>
+      <c r="FY1" s="3"/>
+      <c r="FZ1" s="3"/>
+      <c r="GA1" s="3"/>
+      <c r="GB1" s="3"/>
+      <c r="GC1" s="3"/>
+      <c r="GD1" s="3"/>
+      <c r="GE1" s="3"/>
+      <c r="GF1" s="3"/>
+      <c r="GG1" s="3"/>
+      <c r="GH1" s="3"/>
+      <c r="GI1" s="3"/>
+      <c r="GJ1" s="3"/>
+      <c r="GK1" s="3"/>
+      <c r="GL1" s="3"/>
+      <c r="GM1" s="3"/>
+      <c r="GN1" s="3"/>
+      <c r="GO1" s="3"/>
+      <c r="GP1" s="3"/>
+      <c r="GQ1" s="3"/>
+      <c r="GR1" s="3"/>
+      <c r="GS1" s="3"/>
+      <c r="GT1" s="3"/>
+      <c r="GU1" s="3"/>
+      <c r="GV1" s="3"/>
+      <c r="GW1" s="3"/>
+      <c r="GX1" s="3"/>
+      <c r="GY1" s="3"/>
+      <c r="GZ1" s="3"/>
+      <c r="HA1" s="3"/>
+      <c r="HB1" s="3"/>
+      <c r="HC1" s="3"/>
+      <c r="HD1" s="3"/>
+      <c r="HE1" s="3"/>
+      <c r="HF1" s="3"/>
+      <c r="HG1" s="3"/>
+      <c r="HH1" s="3"/>
+      <c r="HI1" s="3"/>
+      <c r="HJ1" s="3"/>
+      <c r="HK1" s="3"/>
+      <c r="HL1" s="3"/>
+      <c r="HM1" s="3"/>
+      <c r="HN1" s="3"/>
+      <c r="HO1" s="3"/>
+      <c r="HP1" s="3"/>
+      <c r="HQ1" s="3"/>
+      <c r="HR1" s="3"/>
+      <c r="HS1" s="3"/>
+      <c r="HT1" s="3"/>
+      <c r="HU1" s="3"/>
+      <c r="HV1" s="3"/>
+      <c r="HW1" s="3"/>
+      <c r="HX1" s="3"/>
+      <c r="HY1" s="3"/>
+      <c r="HZ1" s="3"/>
+      <c r="IA1" s="3"/>
+      <c r="IB1" s="3"/>
+      <c r="IC1" s="3"/>
+      <c r="ID1" s="3"/>
+      <c r="IE1" s="3"/>
+      <c r="IF1" s="3"/>
+      <c r="IG1" s="3"/>
+      <c r="IH1" s="3"/>
+      <c r="II1" s="3"/>
+      <c r="IJ1" s="3"/>
+      <c r="IK1" s="3"/>
+      <c r="IL1" s="3"/>
+      <c r="IM1" s="3"/>
+      <c r="IN1" s="3"/>
+      <c r="IO1" s="3"/>
+      <c r="IP1" s="3"/>
+      <c r="IQ1" s="3"/>
+      <c r="IR1" s="3"/>
+      <c r="IS1" s="3"/>
+      <c r="IT1" s="3"/>
+      <c r="IU1" s="3"/>
+      <c r="IV1" s="3"/>
     </row>
-    <row r="2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:256">
       <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>668</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
+        <f>COUNTA(C6:C22)</f>
+        <v>5</v>
       </c>
     </row>
-    <row r="3" x14ac:dyDescent="0.25">
-      <c r="B3">
-        <v>0</v>
+    <row r="5" spans="1:256">
+      <c r="C5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:256">
+      <c r="C6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:256">
+      <c r="C7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:256">
+      <c r="C8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:256">
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:256">
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:IV1"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Data/PlayerData.xlsx
+++ b/Data/PlayerData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GItData\Space Scavenger\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38D83F12-966F-4736-B97D-5AF8ADF39B9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{218AB097-7F2B-40A8-B9A9-84D08EBA0B56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6450" yWindow="2040" windowWidth="22005" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6630" yWindow="1245" windowWidth="22005" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Created by LibXL trial version 4.0.4. Please buy the LibXL full version for removing this message.</t>
   </si>
@@ -62,6 +62,10 @@
   </si>
   <si>
     <t>Uranium</t>
+  </si>
+  <si>
+    <t>Mineral</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -449,10 +453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:IV10"/>
+  <dimension ref="A1:IV11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -723,7 +727,7 @@
     <row r="2" spans="1:256">
       <c r="A2">
         <f>COUNTA(C6:C22)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:256">
@@ -739,7 +743,7 @@
         <v>2</v>
       </c>
       <c r="D6">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7" spans="1:256">
@@ -747,7 +751,7 @@
         <v>3</v>
       </c>
       <c r="D7">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8" spans="1:256">
@@ -755,7 +759,7 @@
         <v>4</v>
       </c>
       <c r="D8">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9" spans="1:256">
@@ -763,7 +767,7 @@
         <v>6</v>
       </c>
       <c r="D9">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="10" spans="1:256">
@@ -771,7 +775,15 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>100</v>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:256">
+      <c r="C11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/Data/PlayerData.xlsx
+++ b/Data/PlayerData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GItData\Space Scavenger\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{218AB097-7F2B-40A8-B9A9-84D08EBA0B56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38D83F12-966F-4736-B97D-5AF8ADF39B9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6630" yWindow="1245" windowWidth="22005" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6450" yWindow="2040" windowWidth="22005" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Created by LibXL trial version 4.0.4. Please buy the LibXL full version for removing this message.</t>
   </si>
@@ -62,10 +62,6 @@
   </si>
   <si>
     <t>Uranium</t>
-  </si>
-  <si>
-    <t>Mineral</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -453,10 +449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:IV11"/>
+  <dimension ref="A1:IV10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -727,7 +723,7 @@
     <row r="2" spans="1:256">
       <c r="A2">
         <f>COUNTA(C6:C22)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:256">
@@ -743,7 +739,7 @@
         <v>2</v>
       </c>
       <c r="D6">
-        <v>1000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:256">
@@ -751,7 +747,7 @@
         <v>3</v>
       </c>
       <c r="D7">
-        <v>1000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:256">
@@ -759,7 +755,7 @@
         <v>4</v>
       </c>
       <c r="D8">
-        <v>1000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:256">
@@ -767,7 +763,7 @@
         <v>6</v>
       </c>
       <c r="D9">
-        <v>1000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:256">
@@ -775,15 +771,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:256">
-      <c r="C11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11">
-        <v>1000</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/Data/PlayerData.xlsx
+++ b/Data/PlayerData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GItData\Space Scavenger\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38D83F12-966F-4736-B97D-5AF8ADF39B9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FADC8D7-E9AF-4687-BC07-6D5EABD9C4EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6450" yWindow="2040" windowWidth="22005" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6630" yWindow="1245" windowWidth="22005" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Created by LibXL trial version 4.0.4. Please buy the LibXL full version for removing this message.</t>
   </si>
@@ -62,6 +62,10 @@
   </si>
   <si>
     <t>Uranium</t>
+  </si>
+  <si>
+    <t>Mineral</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -449,10 +453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:IV10"/>
+  <dimension ref="A1:IV11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -723,7 +727,7 @@
     <row r="2" spans="1:256">
       <c r="A2">
         <f>COUNTA(C6:C22)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:256">
@@ -771,6 +775,14 @@
         <v>7</v>
       </c>
       <c r="D10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:256">
+      <c r="C11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11">
         <v>100</v>
       </c>
     </row>

--- a/Data/PlayerData.xlsx
+++ b/Data/PlayerData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GItData\Space Scavenger\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FADC8D7-E9AF-4687-BC07-6D5EABD9C4EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{218AB097-7F2B-40A8-B9A9-84D08EBA0B56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6630" yWindow="1245" windowWidth="22005" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -743,7 +743,7 @@
         <v>2</v>
       </c>
       <c r="D6">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7" spans="1:256">
@@ -751,7 +751,7 @@
         <v>3</v>
       </c>
       <c r="D7">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8" spans="1:256">
@@ -759,7 +759,7 @@
         <v>4</v>
       </c>
       <c r="D8">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9" spans="1:256">
@@ -767,7 +767,7 @@
         <v>6</v>
       </c>
       <c r="D9">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="10" spans="1:256">
@@ -775,7 +775,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="11" spans="1:256">
@@ -783,7 +783,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
